--- a/FP1-G54-350-1201/FP1-log-G54-0624-350-1201.xlsx
+++ b/FP1-G54-350-1201/FP1-log-G54-0624-350-1201.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\ExU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ENSC 350 Part1\ENSC350FP\FP1-G54-350-1201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB60572-7500-46C0-83B9-37B60B5091AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4F8FB-FB1E-4408-9DB8-BC620F139C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>5:45pm</t>
+  </si>
+  <si>
+    <t>10:34pm</t>
+  </si>
+  <si>
+    <t>9:45pm</t>
+  </si>
+  <si>
+    <t>Did some small changes to the source code and re-took some screenshots</t>
   </si>
 </sst>
 </file>
@@ -773,7 +782,7 @@
   <dimension ref="A1:G757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,11 +1083,21 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
       <c r="B21" s="13"/>
